--- a/data/German_notebook.xlsx
+++ b/data/German_notebook.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\josep\Documents\GitHub\Japonese_notebook\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{147EA8BF-4ACF-4B9A-AC17-CA4726999FAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65F0E27F-50B0-428F-A76A-3173A6EC7A33}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{46005711-3153-43C4-826C-DD241C70C156}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="147">
   <si>
     <t>Romanji</t>
   </si>
@@ -476,6 +476,9 @@
   </si>
   <si>
     <t>hallo</t>
+  </si>
+  <si>
+    <t>German</t>
   </si>
 </sst>
 </file>
@@ -899,7 +902,7 @@
   <dimension ref="A1:D503"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F486" sqref="F486"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -919,7 +922,7 @@
         <v>118</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>0</v>
+        <v>146</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
